--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>L</t>
   </si>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +73,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +132,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -131,7 +150,412 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Voltaje contra frecuencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datos</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$24:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>191.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>188.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>227.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="99760943"/>
+        <c:axId val="41026029"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99760943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Frecuencia (kHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="41026029"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41026029"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voltaje (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="99760943"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4863600" y="1338480"/>
+        <a:ext cx="5753880" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -139,10 +563,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I22" activeCellId="0" pane="topLeft" sqref="I22"/>
+      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -231,7 +655,7 @@
         <v>191.1</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.114</v>
+        <v>1.14</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>209.4</v>
@@ -293,6 +717,10 @@
       <c r="D9" s="0" t="n">
         <v>6.49747334361397</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">B5*2*PI()</f>
+        <v>256509.966032373</v>
+      </c>
       <c r="I9" s="0" t="n">
         <v>0.24</v>
       </c>
@@ -343,7 +771,7 @@
         <v>19.4924200308419</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.122</v>
+        <v>1.22</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>188.3</v>
@@ -462,6 +890,10 @@
         <f aca="false">C18*B18</f>
         <v>64.9747334361397</v>
       </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">2*PI()*191.4</f>
+        <v>1202.60166779417</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="B19" s="0" t="n">
@@ -523,7 +955,7 @@
         <v>162.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="n">
         <v>6.49747334361397</v>
       </c>
@@ -534,6 +966,12 @@
         <f aca="false">C23*B23</f>
         <v>97.4621001542095</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
       <c r="B24" s="0" t="n">
@@ -546,6 +984,19 @@
         <f aca="false">C24*B24</f>
         <v>103.959573497823</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">2*PI()*O24</f>
+        <v>1200.71671220202</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
       <c r="B25" s="0" t="n">
@@ -558,6 +1009,19 @@
         <f aca="false">C25*B25</f>
         <v>110.457046841437</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">2*PI()*O25</f>
+        <v>1112.12379937079</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
       <c r="B26" s="0" t="n">
@@ -570,6 +1034,19 @@
         <f aca="false">C26*B26</f>
         <v>116.954520185051</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">2*PI()*O26</f>
+        <v>1972.92018645439</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
       <c r="B27" s="0" t="n">
@@ -582,6 +1059,19 @@
         <f aca="false">C27*B27</f>
         <v>123.451993528665</v>
       </c>
+      <c r="N27" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">2*PI()*O27</f>
+        <v>1910.08833338259</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
       <c r="B28" s="0" t="n">
@@ -594,6 +1084,19 @@
         <f aca="false">C28*B28</f>
         <v>129.949466872279</v>
       </c>
+      <c r="N28" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">2*PI()*O28</f>
+        <v>1300.61935858617</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
       <c r="B29" s="0" t="n">
@@ -606,6 +1109,19 @@
         <f aca="false">C29*B29</f>
         <v>136.446940215893</v>
       </c>
+      <c r="N29" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">2*PI()*O29</f>
+        <v>1164.27423742038</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
       <c r="B30" s="0" t="n">
@@ -618,6 +1134,19 @@
         <f aca="false">C30*B30</f>
         <v>142.944413559507</v>
       </c>
+      <c r="N30" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">2*PI()*O30</f>
+        <v>1183.12379334192</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
       <c r="B31" s="0" t="n">
@@ -630,6 +1159,19 @@
         <f aca="false">C31*B31</f>
         <v>149.441886903121</v>
       </c>
+      <c r="N31" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">2*PI()*O31</f>
+        <v>1120.29194027012</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
       <c r="B32" s="0" t="n">
@@ -642,6 +1184,19 @@
         <f aca="false">C32*B32</f>
         <v>155.939360246735</v>
       </c>
+      <c r="N32" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">2*PI()*O32</f>
+        <v>1096.41583610284</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
       <c r="B33" s="0" t="n">
@@ -654,6 +1209,19 @@
         <f aca="false">C33*B33</f>
         <v>162.436833590349</v>
       </c>
+      <c r="N33" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">2*PI()*O33</f>
+        <v>295.309709437441</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
       <c r="B34" s="0" t="n">
@@ -666,6 +1234,19 @@
         <f aca="false">C34*B34</f>
         <v>168.934306933963</v>
       </c>
+      <c r="N34" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">2*PI()*O34</f>
+        <v>1315.69900332341</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
       <c r="B35" s="0" t="n">
@@ -678,6 +1259,19 @@
         <f aca="false">C35*B35</f>
         <v>175.431780277577</v>
       </c>
+      <c r="N35" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">2*PI()*O35</f>
+        <v>1324.49546275346</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>0.94</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
       <c r="B36" s="0" t="n">
@@ -690,6 +1284,19 @@
         <f aca="false">C36*B36</f>
         <v>181.929253621191</v>
       </c>
+      <c r="N36" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">2*PI()*O36</f>
+        <v>1351.51315957433</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
       <c r="B37" s="0" t="n">
@@ -702,6 +1309,19 @@
         <f aca="false">C37*B37</f>
         <v>188.426726964805</v>
       </c>
+      <c r="N37" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>221.7</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">2*PI()*O37</f>
+        <v>1392.98218260171</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
       <c r="B38" s="0" t="n">
@@ -713,6 +1333,64 @@
       <c r="D38" s="0" t="n">
         <f aca="false">C38*B38</f>
         <v>194.924200308419</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">2*PI()*O38</f>
+        <v>1428.16802032192</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+      <c r="N39" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">2*PI()*O39</f>
+        <v>2827.43338823081</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
+      <c r="N40" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">2*PI()*O40</f>
+        <v>1419.99987942259</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+      <c r="N41" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">2*PI()*O41</f>
+        <v>3279.82273034774</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -723,5 +1401,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>